--- a/food_loss_and_waste_rates.xlsx
+++ b/food_loss_and_waste_rates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samclymer/Desktop/classes/BEE4750/final_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samclymer/Desktop/classes/BEE4750/MealEmissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{039BA27D-DCB9-EC4A-8E8C-58295DCEE5BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931BF848-6588-2441-9904-A7B79862DDD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{ABB465FC-C113-824B-98A7-D5039DA9A531}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Food</t>
   </si>
@@ -603,11 +603,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC54133-3AC8-524A-B8E8-0912506778E8}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -792,18 +795,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4">
-        <v>22</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -890,32 +885,16 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4">
-        <v>8</v>
-      </c>
-      <c r="D21" s="4">
-        <v>22</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4">
-        <v>22</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -974,18 +953,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>10</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1016,18 +987,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>8</v>
-      </c>
-      <c r="D30" s="4">
-        <v>22</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -1226,18 +1189,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="4">
-        <v>1</v>
-      </c>
-      <c r="C45" s="4">
-        <v>8</v>
-      </c>
-      <c r="D45" s="4">
-        <v>22</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
@@ -1254,18 +1209,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="4">
-        <v>0</v>
-      </c>
-      <c r="C47" s="4">
-        <v>8</v>
-      </c>
-      <c r="D47" s="4">
-        <v>22</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
